--- a/subcategories.xlsx
+++ b/subcategories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Bananes &amp; fruits exotiques</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Autres charcuteries</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Pains spéciaux &amp; précuits</t>
+  </si>
+  <si>
+    <t>Viennoiseries</t>
   </si>
 </sst>
 </file>
@@ -506,7 +515,7 @@
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -619,6 +628,9 @@
       <c r="E2" t="s">
         <v>49</v>
       </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
@@ -636,6 +648,9 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
@@ -652,6 +667,9 @@
       </c>
       <c r="E4" t="s">
         <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -693,7 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>

--- a/subcategories.xlsx
+++ b/subcategories.xlsx
@@ -4,206 +4,237 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="360" windowWidth="18290" windowHeight="7060"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
-  <si>
-    <t>Bananes &amp; fruits exotiques</t>
-  </si>
-  <si>
-    <t>Agrumes</t>
-  </si>
-  <si>
-    <t>Pommes</t>
-  </si>
-  <si>
-    <t>Fruits rouges</t>
-  </si>
-  <si>
-    <t>Fruits découpés</t>
-  </si>
-  <si>
-    <t>Fruits secs &amp; à coques</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>Crèmerie, œufs, laits</t>
+  </si>
+  <si>
+    <t>Yaourts, fromages blancs</t>
+  </si>
+  <si>
+    <t>Desserts, compotes</t>
+  </si>
+  <si>
+    <t>Fromages à déguster à la coupe</t>
+  </si>
+  <si>
+    <t>Fromages à cuisiner, apéritifs, râpés</t>
   </si>
   <si>
     <t>Fruits</t>
   </si>
   <si>
-    <t>Crudités</t>
-  </si>
-  <si>
     <t>Légumes</t>
   </si>
   <si>
-    <t>Salades &amp; Herbes fraîches</t>
-  </si>
-  <si>
-    <t>Pommes de terre</t>
-  </si>
-  <si>
-    <t>Ail &amp; Oignons</t>
-  </si>
-  <si>
-    <t>Crèmerie &amp; Oeufs</t>
-  </si>
-  <si>
-    <t>Viandes &amp; Poissons</t>
+    <t>Fruits, légumes prêt à consommer</t>
+  </si>
+  <si>
+    <t>Jus de fruits frais, gazpacho</t>
+  </si>
+  <si>
+    <t>Boucherie</t>
+  </si>
+  <si>
+    <t>Volaille, lapin</t>
+  </si>
+  <si>
+    <t>Poissons, crustacés</t>
+  </si>
+  <si>
+    <t>Traiteur de la mer</t>
   </si>
   <si>
     <t>Charcuterie</t>
   </si>
   <si>
-    <t>Boulangerie &amp; Pâtisserie</t>
-  </si>
-  <si>
-    <t>Yaourts &amp; Desserts</t>
-  </si>
-  <si>
-    <t>Fromages</t>
-  </si>
-  <si>
-    <t>Traiteur &amp; Repas Express</t>
+    <t>Traiteur</t>
+  </si>
+  <si>
+    <t>Snacking, salade, plats cuisinés</t>
+  </si>
+  <si>
+    <t>Pain, pâtisserie</t>
+  </si>
+  <si>
+    <t>Apéritifs, pizzas, plats cuisinés</t>
+  </si>
+  <si>
+    <t>Frites, pommes de terre</t>
+  </si>
+  <si>
+    <t>Viandes, poissons</t>
+  </si>
+  <si>
+    <t>Glaces, viennoiseries</t>
+  </si>
+  <si>
+    <t>Cafés</t>
+  </si>
+  <si>
+    <t>Petit déjeuner, thés, chocolats en poudre</t>
+  </si>
+  <si>
+    <t>Biscuits, gâteaux</t>
+  </si>
+  <si>
+    <t>Chocolats, confiseries</t>
+  </si>
+  <si>
+    <t>Desserts, sucres, farines, diététique</t>
+  </si>
+  <si>
+    <t>Apéritif</t>
+  </si>
+  <si>
+    <t>Huiles, sauces, aides culinaires</t>
+  </si>
+  <si>
+    <t>Conserves, soupes</t>
+  </si>
+  <si>
+    <t>Pâtes, riz, légumes secs</t>
+  </si>
+  <si>
+    <t>Plats cuisinés, produits du monde</t>
+  </si>
+  <si>
+    <t>Eaux, laits</t>
+  </si>
+  <si>
+    <t>Jus de fruits, jus de légumes</t>
+  </si>
+  <si>
+    <t>Colas, boissons gazeuses, énergisantes</t>
+  </si>
+  <si>
+    <t>Thés, boissons plates aux fruits, sirops</t>
+  </si>
+  <si>
+    <t>Soins du visage, hygiène dentaire, maquillage</t>
+  </si>
+  <si>
+    <t>Hygiène, soins du corps</t>
+  </si>
+  <si>
+    <t>Soins des cheveux</t>
+  </si>
+  <si>
+    <t>Hygiène, soins homme</t>
+  </si>
+  <si>
+    <t>Mouchoirs, protections hygiéniques, petite parapharmacie</t>
+  </si>
+  <si>
+    <t>Papier toilette, essuie-tout, mouchoir</t>
+  </si>
+  <si>
+    <t>Soin du linge</t>
+  </si>
+  <si>
+    <t>Vaisselle, entretien lave-vaisselle</t>
+  </si>
+  <si>
+    <t>Produits d'entretien</t>
+  </si>
+  <si>
+    <t>Accessoires ménagers maison</t>
+  </si>
+  <si>
+    <t>Régimes alimentaires spécifiques</t>
+  </si>
+  <si>
+    <t>Laits, petits déjeuners de bébé</t>
+  </si>
+  <si>
+    <t>Repas, desserts, goûters de bébé</t>
+  </si>
+  <si>
+    <t>Couches, toilette de bébé</t>
+  </si>
+  <si>
+    <t>Oeufs, produits laitiers</t>
+  </si>
+  <si>
+    <t>Fruits, légumes</t>
+  </si>
+  <si>
+    <t>Boucherie, volaille, poissonnerie</t>
+  </si>
+  <si>
+    <t>Charcuterie, traiteur, pain</t>
   </si>
   <si>
     <t>Surgelés</t>
   </si>
   <si>
-    <t>Petit déjeuner</t>
-  </si>
-  <si>
-    <t>Boissons chaudes</t>
-  </si>
-  <si>
-    <t>Biscuits &amp; Gâteaux</t>
-  </si>
-  <si>
-    <t>Chocolats &amp; Bonbons</t>
-  </si>
-  <si>
-    <t>Chips &amp; Apéro</t>
-  </si>
-  <si>
-    <t>Pâtes, Riz &amp; Légumes Secs</t>
-  </si>
-  <si>
-    <t>Conserves &amp; Soupes</t>
-  </si>
-  <si>
-    <t>Huiles, Sauces &amp; Epices</t>
-  </si>
-  <si>
-    <t>Sucres, Farines &amp; Aides Pâtisserie</t>
-  </si>
-  <si>
-    <t>Eaux</t>
-  </si>
-  <si>
-    <t>Boissons, Sodas &amp; Colas</t>
-  </si>
-  <si>
-    <t>Apéritifs &amp; Alcools</t>
-  </si>
-  <si>
-    <t>Bières &amp; Cidres</t>
-  </si>
-  <si>
-    <t>Vins &amp; Champagnes</t>
-  </si>
-  <si>
-    <t>Hygiène &amp; Beauté</t>
-  </si>
-  <si>
-    <t>Parapharmacie</t>
-  </si>
-  <si>
-    <t>Entretien &amp; Nettoyage</t>
-  </si>
-  <si>
-    <t>Animalerie</t>
+    <t>Epicerie sucrée</t>
+  </si>
+  <si>
+    <t>Epicerie salée</t>
+  </si>
+  <si>
+    <t>Boissons sans alcool</t>
+  </si>
+  <si>
+    <t>Hygiène, beauté, parapharmacie</t>
+  </si>
+  <si>
+    <t>Entretien maison</t>
+  </si>
+  <si>
+    <t>Régimes alimentaires et nutrition</t>
   </si>
   <si>
     <t>Bébé</t>
-  </si>
-  <si>
-    <t>Maison &amp; Loisirs</t>
-  </si>
-  <si>
-    <t>Oeufs</t>
-  </si>
-  <si>
-    <t>Laits</t>
-  </si>
-  <si>
-    <t>Boissons lactées</t>
-  </si>
-  <si>
-    <t>Boissons végétales</t>
-  </si>
-  <si>
-    <t>Beurres &amp; Margarines</t>
-  </si>
-  <si>
-    <t>Crèmes</t>
-  </si>
-  <si>
-    <t>Boucherie</t>
-  </si>
-  <si>
-    <t>Volailles</t>
-  </si>
-  <si>
-    <t>Poissonnerie</t>
-  </si>
-  <si>
-    <t>Jambons et Lardons</t>
-  </si>
-  <si>
-    <t>Saucissons</t>
-  </si>
-  <si>
-    <t>Autres charcuteries</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Pains spéciaux &amp; précuits</t>
-  </si>
-  <si>
-    <t>Viennoiseries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Czcionka tekstu podstawowego"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,13 +242,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -512,223 +561,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>